--- a/src/main/java/com/naveencrm/testdata/NaveenTestData.xlsx
+++ b/src/main/java/com/naveencrm/testdata/NaveenTestData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ro185049\Documents\SeleniumTests\RU\selPOMF\src\main\java\com\naveencrm\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NewContact" sheetId="1" r:id="rId1"/>
@@ -84,9 +89,6 @@
     <t>Russell</t>
   </si>
   <si>
-    <t>Sir.</t>
-  </si>
-  <si>
     <t>Charles</t>
   </si>
   <si>
@@ -121,12 +123,15 @@
   </si>
   <si>
     <t>Glasses, Corp.</t>
+  </si>
+  <si>
+    <t>Sir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -172,6 +177,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -500,16 +513,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -534,10 +547,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -548,10 +561,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -565,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -576,10 +589,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -590,10 +603,10 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -604,35 +617,35 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
